--- a/Classification Draft Plan for Draft v0.4_github.xlsx
+++ b/Classification Draft Plan for Draft v0.4_github.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Research\Intent Based Networking\IETF\RG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Research\Intent Based Networking\IETF\nmrg-ibn-intent-classification\nmrg-ibn-intent-classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="150">
   <si>
     <t>Author</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Clarify that the presented intent scopes are extendable.</t>
-  </si>
-  <si>
-    <t>Paderborn University</t>
   </si>
   <si>
     <t xml:space="preserve">Re-phrasing of text - "Thus, the goal of this document is to bring clarity to what an intent represents for different stakeholders,..."
@@ -497,6 +494,9 @@
   <si>
     <t>Separated the text "The key words "MUST", "MUST NOT", "REQUIRED", "SHALL", "SHALL NOT",   "SHOULD", "SHOULD NOT", "RECOMMENDED", "MAY", and "OPTIONAL" in this
    document are to be interpreted as described in RFC 2119 [RFC2119]." in a new section 2 named Key Words after Introduction.</t>
+  </si>
+  <si>
+    <t>Univ. Carlos III Madrid</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1488,11 +1487,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="883808464"/>
-        <c:axId val="883806832"/>
+        <c:axId val="1087864288"/>
+        <c:axId val="1087858304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="883808464"/>
+        <c:axId val="1087864288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1523,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1591,7 +1589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883806832"/>
+        <c:crossAx val="1087858304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1599,7 +1597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="883806832"/>
+        <c:axId val="1087858304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1647,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1710,7 +1707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883808464"/>
+        <c:crossAx val="1087864288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1799,7 +1796,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2206,11 +2202,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="883812272"/>
-        <c:axId val="883801936"/>
+        <c:axId val="1087870272"/>
+        <c:axId val="883803568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="883812272"/>
+        <c:axId val="1087870272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2238,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2309,7 +2304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883801936"/>
+        <c:crossAx val="883803568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2317,7 +2312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="883801936"/>
+        <c:axId val="883803568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2368,7 +2363,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2429,7 +2423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883812272"/>
+        <c:crossAx val="1087870272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2443,7 +2437,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2555,7 +2548,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2914,11 +2906,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="686254096"/>
-        <c:axId val="686247024"/>
+        <c:axId val="883807920"/>
+        <c:axId val="883805200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="686254096"/>
+        <c:axId val="883807920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2950,7 +2942,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3017,7 +3008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686247024"/>
+        <c:crossAx val="883805200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3025,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="686247024"/>
+        <c:axId val="883805200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3076,7 +3067,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3137,7 +3127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686254096"/>
+        <c:crossAx val="883807920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3151,7 +3141,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5211,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5300,13 +5289,13 @@
         <v>4</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5332,10 +5321,10 @@
         <v>8</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5361,10 +5350,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5390,10 +5379,10 @@
         <v>8</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5419,10 +5408,10 @@
         <v>8</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5448,10 +5437,10 @@
         <v>8</v>
       </c>
       <c r="I15" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5474,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="61"/>
     </row>
@@ -5501,10 +5490,10 @@
         <v>2</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="61"/>
     </row>
@@ -5528,10 +5517,10 @@
         <v>2</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="61"/>
     </row>
@@ -5583,7 +5572,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J20" s="61"/>
     </row>
@@ -5610,10 +5599,10 @@
         <v>8</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5639,10 +5628,10 @@
         <v>10</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5668,10 +5657,10 @@
         <v>10</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5707,10 +5696,10 @@
         <v>8</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J25" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5736,10 +5725,10 @@
         <v>10</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5762,13 +5751,13 @@
         <v>2</v>
       </c>
       <c r="H27" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="34" t="s">
-        <v>80</v>
-      </c>
       <c r="J27" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5794,10 +5783,10 @@
         <v>8</v>
       </c>
       <c r="I28" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J28" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5819,7 +5808,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>18</v>
@@ -5834,10 +5823,10 @@
         <v>8</v>
       </c>
       <c r="I30" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J30" s="63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5848,10 +5837,10 @@
         <v>6</v>
       </c>
       <c r="D31" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>46</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>47</v>
       </c>
       <c r="F31" s="70">
         <v>1</v>
@@ -5863,10 +5852,10 @@
         <v>8</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J31" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5877,10 +5866,10 @@
         <v>6</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="70">
         <v>1</v>
@@ -5892,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J32" s="63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5906,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="70">
         <v>1</v>
@@ -5921,10 +5910,10 @@
         <v>8</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J33" s="63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5935,10 +5924,10 @@
         <v>6</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="70">
         <v>1</v>
@@ -5950,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J34" s="63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="2:10" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5974,7 +5963,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="37" t="s">
         <v>24</v>
@@ -5989,10 +5978,10 @@
         <v>8</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J36" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6003,7 +5992,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E37" s="37" t="s">
         <v>19</v>
@@ -6018,10 +6007,10 @@
         <v>8</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6032,7 +6021,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="37" t="s">
         <v>20</v>
@@ -6047,10 +6036,10 @@
         <v>8</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6061,7 +6050,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="37" t="s">
         <v>25</v>
@@ -6076,10 +6065,10 @@
         <v>8</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J39" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6115,10 +6104,10 @@
         <v>10</v>
       </c>
       <c r="I41" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J41" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6139,13 +6128,13 @@
         <v>11</v>
       </c>
       <c r="D43" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="71" t="s">
         <v>51</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="71" t="s">
-        <v>52</v>
       </c>
       <c r="G43" s="71">
         <v>1</v>
@@ -6154,10 +6143,10 @@
         <v>8</v>
       </c>
       <c r="I43" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J43" s="64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6168,13 +6157,13 @@
         <v>11</v>
       </c>
       <c r="D44" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="71" t="s">
         <v>51</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="71" t="s">
-        <v>52</v>
       </c>
       <c r="G44" s="71">
         <v>1</v>
@@ -6193,13 +6182,13 @@
         <v>11</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G45" s="71">
         <v>0</v>
@@ -6208,10 +6197,10 @@
         <v>8</v>
       </c>
       <c r="I45" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J45" s="64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6222,7 +6211,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" s="39" t="s">
         <v>15</v>
@@ -6237,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="I46" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J46" s="64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6251,7 +6240,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47" s="39" t="s">
         <v>28</v>
@@ -6266,10 +6255,10 @@
         <v>8</v>
       </c>
       <c r="I47" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J47" s="64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6280,10 +6269,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" s="71">
         <v>1</v>
@@ -6295,10 +6284,10 @@
         <v>8</v>
       </c>
       <c r="I48" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J48" s="64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6309,7 +6298,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>13</v>
@@ -6321,13 +6310,13 @@
         <v>3</v>
       </c>
       <c r="H49" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I49" s="40" t="s">
-        <v>80</v>
-      </c>
       <c r="J49" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6338,10 +6327,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50" s="71">
         <v>1</v>
@@ -6350,13 +6339,13 @@
         <v>3</v>
       </c>
       <c r="H50" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I50" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I50" s="40" t="s">
-        <v>80</v>
-      </c>
       <c r="J50" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6367,7 +6356,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E51" s="39" t="s">
         <v>12</v>
@@ -6382,10 +6371,10 @@
         <v>8</v>
       </c>
       <c r="I51" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J51" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6396,10 +6385,10 @@
         <v>11</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52" s="71">
         <v>1</v>
@@ -6408,13 +6397,13 @@
         <v>3</v>
       </c>
       <c r="H52" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I52" s="40" t="s">
-        <v>80</v>
-      </c>
       <c r="J52" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6425,10 +6414,10 @@
         <v>11</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" s="87" t="s">
         <v>36</v>
@@ -6440,10 +6429,10 @@
         <v>8</v>
       </c>
       <c r="I53" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J53" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6495,21 +6484,21 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="19"/>
       <c r="K2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -6521,10 +6510,10 @@
       <c r="H3" s="21"/>
       <c r="I3" s="17"/>
       <c r="K3" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -6532,10 +6521,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -6550,15 +6539,15 @@
         <v>3</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="15">
         <v>10</v>
@@ -6579,15 +6568,15 @@
         <v>3</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="15">
         <v>10</v>
@@ -6608,15 +6597,15 @@
         <v>1</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="15">
         <v>8</v>
@@ -6639,13 +6628,13 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="17">
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -6713,7 +6702,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7">
         <v>10</v>
@@ -6788,7 +6777,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -6859,194 +6848,194 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
         <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
         <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
         <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
         <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
         <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="89" t="s">
         <v>105</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
         <v>107</v>
-      </c>
-      <c r="B14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
         <v>109</v>
-      </c>
-      <c r="B15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
         <v>111</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
         <v>113</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
         <v>115</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
         <v>117</v>
-      </c>
-      <c r="B19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
         <v>119</v>
-      </c>
-      <c r="B20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
         <v>121</v>
-      </c>
-      <c r="B21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
         <v>123</v>
-      </c>
-      <c r="B22" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
         <v>125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
         <v>127</v>
-      </c>
-      <c r="B24" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
         <v>129</v>
-      </c>
-      <c r="B25" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
         <v>131</v>
-      </c>
-      <c r="B26" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Classification Draft Plan for Draft v0.4_github.xlsx
+++ b/Classification Draft Plan for Draft v0.4_github.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Research\Intent Based Networking\IETF\nmrg-ibn-intent-classification\nmrg-ibn-intent-classification\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="4560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18530" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Comments" sheetId="3" r:id="rId1"/>
@@ -19,17 +14,33 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary Comments'!$B$10:$J$53</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="152">
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Acronyms</t>
+  </si>
+  <si>
+    <t>Abstract intent requirements</t>
+  </si>
+  <si>
+    <t>Functional Characteristics and Behavior</t>
+  </si>
+  <si>
+    <t>Intent Classification</t>
+  </si>
+  <si>
+    <t>Involvement of intent in the application of AI to Network Management</t>
+  </si>
   <si>
     <t>Author</t>
   </si>
@@ -37,242 +48,116 @@
     <t>Affiliation</t>
   </si>
   <si>
+    <t>High-level comment</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>How it was addressed</t>
+  </si>
+  <si>
     <t>Mehdi Bezahaf</t>
   </si>
   <si>
     <t>Lancaster University</t>
   </si>
   <si>
-    <t>Complexity</t>
+    <t>Consistent use of words.</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>As per draft-nmrg-ibn-concepts-definitions, we can use the following: life-cycle, end-users in the document.
+For the rest of similar workds we used: intent-driven (as per SLA-driven in draft), task-based.</t>
+  </si>
+  <si>
+    <t>Missing acronyms.</t>
+  </si>
+  <si>
+    <t>Updated the list of acronyns in section 3  (nowsection3, after adding section 2 with Keywords).</t>
+  </si>
+  <si>
+    <t>Clarify intent vs. policy confusion.</t>
+  </si>
+  <si>
+    <t>Updated as suggested by Yehia "   An intent is mistaken by many to be just a synonym for policy.
+   While it is easier for those familiar with different standards to   understand what service, CFS, RFS, resource, policy continuum, ECA  policy, declarative policy, abstract policy or intent policy is, it   may be more difficult for the wider audience. Furthermore, those  familiar with policies understand the difference between a business,   intent, declarative, imperative, and ECA policy."</t>
+  </si>
+  <si>
+    <t>The authors sees the listed intent solutions more as scenarios or contexts</t>
+  </si>
+  <si>
+    <t>This has been addressed through email communication.</t>
+  </si>
+  <si>
+    <t>Clarify whether intent solutions and intents users are covering all posibilities or are just examples/starting point.</t>
+  </si>
+  <si>
+    <t>The following sentence has been added after the table in updated section 4.2: "These intent solutions and intent users represent a starting point for the classification and are expendable through the methodology  presented in Section 5.1."</t>
+  </si>
+  <si>
+    <t>User type and context alone does not define the intent type.</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Section 3.1 and 3.2 are related. Picking actor, context and use-case presents a clear definition of an intent.</t>
+  </si>
+  <si>
+    <t>Title of section 3.3 title mentioning "problems" could be replaced with "benefits" or "improvements"</t>
+  </si>
+  <si>
+    <t>Methodology picture is confusing and needs extended description on some of the entities.</t>
+  </si>
+  <si>
+    <t>Consistency between intent user types throughout the document.</t>
+  </si>
+  <si>
+    <t>China Telecom</t>
+  </si>
+  <si>
+    <t>We will modify the intent user types of enterprise and cloud in section 5.2 into enterprise administrator and cloud administrator for consistency with section 6.2.</t>
+  </si>
+  <si>
+    <t>Duplicat entries in the table</t>
+  </si>
+  <si>
+    <t>Fixed table in section 6.3.1  Removed two entries. Section numbering changed due to adding a new section 2 with Keywords.</t>
+  </si>
+  <si>
+    <t>Consistency between intent  types throughout the document.</t>
+  </si>
+  <si>
+    <t>First, the intent types in section 6.2 are almost the same with the section 6.3.1, 6.4.1 and 6.5.1 except  “End-User intent” in 6.5.1. We plan to  change above one intent types into “customer service intent” for consistency.
+The second , we plan to modify the intent type in section 4.4 to be consistent with the intent type in section 6.2 as follows:
+At last, We are not sure whether to keep “Intents that affect other intents” in Section 4.4 or merge with “Operational Task Intent”</t>
+  </si>
+  <si>
+    <t>AI is out of scope for intent classification topic.</t>
   </si>
   <si>
     <t>Yehia Elkhatib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Andres Aranda Gutierrez </t>
-  </si>
-  <si>
-    <t>Alexander Clemm</t>
-  </si>
-  <si>
-    <t>Huawei</t>
-  </si>
-  <si>
-    <t>Qiong Sun</t>
-  </si>
-  <si>
-    <t>China Telecom</t>
-  </si>
-  <si>
-    <t>King Daniel</t>
-  </si>
-  <si>
-    <t>Create Key Words section after Introduction.</t>
-  </si>
-  <si>
-    <t>Create sub-section 1.1 Scope within the Introduction section.</t>
-  </si>
-  <si>
-    <t>Role of AI is section 6 needs more explanation.</t>
-  </si>
-  <si>
-    <t>Missing acronyms.</t>
-  </si>
-  <si>
-    <t>Provide more details on some of the intents, such as how the intent would manifest for an operational point of view.</t>
-  </si>
-  <si>
-    <t>Clarify the aspect of intent conflict resolution.</t>
-  </si>
-  <si>
-    <t>Verify the distinction between SDOs and non-SDOs solutions.</t>
-  </si>
-  <si>
-    <t>Unclear what is the purpose of the Classification Tables. Provide clarification on their usage.</t>
-  </si>
-  <si>
-    <t>Discussion on how classification might be extended/adjusted as technologies evolve.</t>
-  </si>
-  <si>
-    <t>Methodology picture is confusing and needs extended description on some of the entities.</t>
-  </si>
-  <si>
-    <t>Consistency between intent user types throughout the document.</t>
-  </si>
-  <si>
-    <t>Clarify intent vs. policy confusion.</t>
-  </si>
-  <si>
-    <t>Referencing of CLEMMs draft and our position in relation to the draft.</t>
-  </si>
-  <si>
-    <t>Discussion on whether low-level intents should be included or excluded. Decision should be made after deliberation.</t>
-  </si>
-  <si>
-    <t>High-level comment</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>Consistent use of words.</t>
-  </si>
-  <si>
-    <t>Sections</t>
-  </si>
-  <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>Acronyms</t>
-  </si>
-  <si>
-    <t>Abstract intent requirements</t>
-  </si>
-  <si>
-    <t>Functional Characteristics and Behavior</t>
-  </si>
-  <si>
-    <t>Intent Classification</t>
-  </si>
-  <si>
-    <t>Involvement of intent in the application of AI to Network Management</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>The authors sees the listed intent solutions more as scenarios or contexts</t>
-  </si>
-  <si>
-    <t>Clarify whether intent solutions and intents users are covering all posibilities or are just examples/starting point.</t>
-  </si>
-  <si>
-    <t>User type and context alone does not define the intent type.</t>
-  </si>
-  <si>
-    <t>Section 3.1 and 3.2 are related. Picking actor, context and use-case presents a clear definition of an intent.</t>
-  </si>
-  <si>
-    <t>Title of section 3.3 title mentioning "problems" could be replaced with "benefits" or "improvements"</t>
-  </si>
-  <si>
-    <t>Duplicat entries in the table</t>
-  </si>
-  <si>
-    <t>Consistency between intent  types throughout the document.</t>
-  </si>
-  <si>
-    <t>AI is out of scope for intent classification topic.</t>
-  </si>
-  <si>
-    <t>Clarify that the presented intent scopes are extendable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-phrasing of text - "Thus, the goal of this document is to bring clarity to what an intent represents for different stakeholders,..."
-</t>
-  </si>
-  <si>
-    <t>Re-phrasing of text: Review usage of would/could or will/can</t>
-  </si>
-  <si>
-    <t>Re-phrasing of text: Specify the important part of the sentence first: ""This is achieved by proposing initial classification tables and the methodology used for generating them."</t>
-  </si>
-  <si>
-    <t>Re-phrasing of text: "This draft together with [CLEMM] aims"</t>
-  </si>
-  <si>
-    <t>Lancaster UK</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Update Introduction and Abstract should mention the focus is on "network intent"</t>
-  </si>
-  <si>
-    <t>TOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section 3 and 6 titles should use capitalised letters for consistency. </t>
-  </si>
-  <si>
-    <t>Re-phrasing of text: Paragrpah 4</t>
-  </si>
-  <si>
-    <t>Re-phrasing of text: Paragraph 2</t>
-  </si>
-  <si>
-    <t>List SDOs scope of work and their output, in order to identify gaps.</t>
-  </si>
-  <si>
-    <t>Include a Definitions section, along the Acronyms one.</t>
-  </si>
-  <si>
-    <t>Fix english nits and improve readability.</t>
-  </si>
-  <si>
-    <t>Complexity 1</t>
-  </si>
-  <si>
-    <t>Complexity 2</t>
-  </si>
-  <si>
-    <t>Complexity 0</t>
-  </si>
-  <si>
-    <t>Complexity 3</t>
-  </si>
-  <si>
-    <t>Total Sum</t>
-  </si>
-  <si>
-    <t>Allexander Clemm</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Author / Complexity</t>
-  </si>
-  <si>
-    <t>Overall Number of Comments</t>
-  </si>
-  <si>
-    <t>Number of Comments per Author and per Complexity</t>
-  </si>
-  <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>1 day for all taks</t>
-  </si>
-  <si>
-    <t>1 hour / comment</t>
-  </si>
-  <si>
-    <t>0.5 day / comment</t>
-  </si>
-  <si>
-    <t>Futurewei</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Jeferson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>How it was addressed</t>
   </si>
   <si>
     <t>Updated as suggested by Yehia "   An intent is mistaken by many to be just a synonym for policy.
@@ -281,194 +166,107 @@
    familiar with policies understand the difference between a business,  intent, declarative, imperative, and ECA policy."</t>
   </si>
   <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Application Programming Interface</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>Customer Equipment</t>
-  </si>
-  <si>
-    <t>CFS</t>
-  </si>
-  <si>
-    <t>Customer Facing Service</t>
-  </si>
-  <si>
-    <t>CLI</t>
-  </si>
-  <si>
-    <t>Command-Line Interface</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>Data Base</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Data Center</t>
-  </si>
-  <si>
-    <t>ECA</t>
-  </si>
-  <si>
-    <t>Event-Condition-Action</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>Group-Based Policy</t>
-  </si>
-  <si>
-    <t>IETF</t>
-  </si>
-  <si>
-    <t>Internet Engineering Task Force</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Internet Protocol</t>
-  </si>
-  <si>
-    <t>O&amp;M</t>
-  </si>
-  <si>
-    <t>Operations &amp; Maintenance</t>
-  </si>
-  <si>
-    <t>ONF</t>
-  </si>
-  <si>
-    <t>Open Networking Foundation</t>
-  </si>
-  <si>
-    <t>ONOS</t>
-  </si>
-  <si>
-    <t>Open Network Operating System</t>
-  </si>
-  <si>
-    <t>PNF</t>
-  </si>
-  <si>
-    <t>Physical Network Function</t>
-  </si>
-  <si>
-    <t>QoS</t>
-  </si>
-  <si>
-    <t>Quality of Service</t>
-  </si>
-  <si>
-    <t>RFS</t>
-  </si>
-  <si>
-    <t>Resource Facing Service</t>
-  </si>
-  <si>
-    <t>SDO</t>
-  </si>
-  <si>
-    <t>Standards Developing Organization</t>
-  </si>
-  <si>
-    <t>SD-WAN</t>
-  </si>
-  <si>
-    <t>Software-Defined Wide-Area Network</t>
-  </si>
-  <si>
-    <t>SLA</t>
-  </si>
-  <si>
-    <t>Service-Level Agreement</t>
-  </si>
-  <si>
-    <t>SUPA</t>
-  </si>
-  <si>
-    <t>Simplified Use of Policy Abstractions</t>
-  </si>
-  <si>
-    <t>VLAN</t>
-  </si>
-  <si>
-    <t>Virtual Local Area Network</t>
-  </si>
-  <si>
-    <t>VM</t>
-  </si>
-  <si>
-    <t>Virtual Machine</t>
-  </si>
-  <si>
-    <t>VPN</t>
-  </si>
-  <si>
-    <t>Virtual Private Network</t>
-  </si>
-  <si>
-    <t>Updated the list of acronyns in section 3  (nowsection3, after adding section 2 with Keywords).</t>
-  </si>
-  <si>
-    <t>Updated as suggested by Yehia "   An intent is mistaken by many to be just a synonym for policy.
-   While it is easier for those familiar with different standards to   understand what service, CFS, RFS, resource, policy continuum, ECA  policy, declarative policy, abstract policy or intent policy is, it   may be more difficult for the wider audience. Furthermore, those  familiar with policies understand the difference between a business,   intent, declarative, imperative, and ECA policy."</t>
-  </si>
-  <si>
-    <t>This has been addressed through email communication.</t>
-  </si>
-  <si>
-    <t>The following sentence has been added after the table in updated section 4.2: "These intent solutions and intent users represent a starting point for the classification and are expendable through the methodology  presented in Section 5.1."</t>
-  </si>
-  <si>
-    <t>Fixed table in section 6.3.1  Removed two entries. Section numbering changed due to adding a new section 2 with Keywords.</t>
+    <t>Provide more details on some of the intents, such as how the intent would manifest for an operational point of view.</t>
+  </si>
+  <si>
+    <t>Clarify the aspect of intent conflict resolution.</t>
+  </si>
+  <si>
+    <t>Jeferson</t>
+  </si>
+  <si>
+    <t>Clarify that the presented intent scopes are extendable.</t>
   </si>
   <si>
     <t>The following sentence has been added at the end of Section 5.3 "These intent scopes are expendable through the methodology presented in Section 6.1."
 Section numbering changed due to adding a new section 2 with Keywords.</t>
   </si>
   <si>
+    <t xml:space="preserve">Pedro Andres Aranda Gutierrez </t>
+  </si>
+  <si>
+    <t>Univ. Carlos III Madrid</t>
+  </si>
+  <si>
+    <t>Verify the distinction between SDOs and non-SDOs solutions.</t>
+  </si>
+  <si>
+    <t>Rewritten in Section 1 as "All SDOs, and open source projects, such as IETF [ANIMA]…" .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-phrasing of text - "Thus, the goal of this document is to bring clarity to what an intent represents for different stakeholders,..."
+</t>
+  </si>
+  <si>
+    <t>Updated as suggested  in Section 1 : "The goal of this document is to clarify what an  intent represents for different stakeholders".</t>
+  </si>
+  <si>
+    <t>Re-phrasing of text: Review usage of would/could or will/can</t>
+  </si>
+  <si>
+    <t>Updated in Section 1 : "This classification could".</t>
+  </si>
+  <si>
+    <t>Re-phrasing of text: Specify the important part of the sentence first: ""This is achieved by proposing initial classification tables and the methodology used for generating them."</t>
+  </si>
+  <si>
     <t>Rephrased in Section 1 as "This is achieved by proposing the methodology and initial  classification tables".</t>
   </si>
   <si>
+    <t>Re-phrasing of text: "This draft together with [CLEMM] aims"</t>
+  </si>
+  <si>
     <t>Rephrased in Section 1: "Together with [CLEMM], this draft aims…"</t>
   </si>
   <si>
-    <t>Rewritten in Section 1 as "All SDOs, and open source projects, such as IETF [ANIMA]…" .</t>
-  </si>
-  <si>
-    <t>Updated as suggested  in Section 1 : "The goal of this document is to clarify what an  intent represents for different stakeholders".</t>
-  </si>
-  <si>
-    <t>Updated in Section 1 : "This classification could".</t>
+    <t>Alexander Clemm</t>
+  </si>
+  <si>
+    <t>Futurewei</t>
+  </si>
+  <si>
+    <t>Referencing of CLEMMs draft and our position in relation to the draft.</t>
+  </si>
+  <si>
+    <t>Unclear what is the purpose of the Classification Tables. Provide clarification on their usage.</t>
+  </si>
+  <si>
+    <t>Discussion on how classification might be extended/adjusted as technologies evolve.</t>
+  </si>
+  <si>
+    <t>Discussion on whether low-level intents should be included or excluded. Decision should be made after deliberation.</t>
+  </si>
+  <si>
+    <t>Qiong Sun</t>
+  </si>
+  <si>
+    <t>Role of AI is section 6 needs more explanation.</t>
+  </si>
+  <si>
+    <t>King Daniel</t>
+  </si>
+  <si>
+    <t>Lancaster UK</t>
+  </si>
+  <si>
+    <t>Re-phrasing of text: Paragraph 2</t>
+  </si>
+  <si>
+    <t>Abstract</t>
   </si>
   <si>
     <t>Abstract updated as suggested: "This document discusses the concept of intent. Specifically, it  highlights stakeholder perspectives of intent, methods to classify 
    and encode intent, the associated intent taxonomy, and defines  relevant intent terms where necessary. This document provides a 
    foundation for intent related research and facilitate solution   development."</t>
+  </si>
+  <si>
+    <t>Update Introduction and Abstract should mention the focus is on "network intent"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 3 and 6 titles should use capitalised letters for consistency. </t>
+  </si>
+  <si>
+    <t>TOC</t>
   </si>
   <si>
     <t>Capitalized in TOC and Section Name
@@ -481,8 +279,7 @@
  Section numbering changed due to adding a new section 2 with Keywords.</t>
   </si>
   <si>
-    <t>As per draft-nmrg-ibn-concepts-definitions, we can use the following: life-cycle, end-users in the document.
-For the rest of similar workds we used: intent-driven (as per SLA-driven in draft), task-based.</t>
+    <t>Re-phrasing of text: Paragrpah 4</t>
   </si>
   <si>
     <t>Text updated in Section 1 as: "As it can be observed, each of the aforementioned SDOs came up with 
@@ -492,31 +289,224 @@
    applications and usage scenarios."</t>
   </si>
   <si>
+    <t>Create sub-section 1.1 Scope within the Introduction section.</t>
+  </si>
+  <si>
+    <t>List SDOs scope of work and their output, in order to identify gaps.</t>
+  </si>
+  <si>
+    <t>Create Key Words section after Introduction.</t>
+  </si>
+  <si>
     <t>Separated the text "The key words "MUST", "MUST NOT", "REQUIRED", "SHALL", "SHALL NOT",   "SHOULD", "SHOULD NOT", "RECOMMENDED", "MAY", and "OPTIONAL" in this
    document are to be interpreted as described in RFC 2119 [RFC2119]." in a new section 2 named Key Words after Introduction.</t>
   </si>
   <si>
-    <t>Univ. Carlos III Madrid</t>
+    <t>Include a Definitions section, along the Acronyms one.</t>
+  </si>
+  <si>
+    <t>Fix english nits and improve readability.</t>
+  </si>
+  <si>
+    <t>Overall Number of Comments</t>
+  </si>
+  <si>
+    <t>Number of Comments per Author and per Complexity</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Complexity 0</t>
+  </si>
+  <si>
+    <t>1 day for all taks</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Author / Complexity</t>
+  </si>
+  <si>
+    <t>Complexity 1</t>
+  </si>
+  <si>
+    <t>Complexity 2</t>
+  </si>
+  <si>
+    <t>1 hour / comment</t>
+  </si>
+  <si>
+    <t>Complexity 3</t>
+  </si>
+  <si>
+    <t>0.5 day / comment</t>
+  </si>
+  <si>
+    <t>Allexander Clemm</t>
+  </si>
+  <si>
+    <t>Total Sum</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Application Programming Interface</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Customer Equipment</t>
+  </si>
+  <si>
+    <t>CFS</t>
+  </si>
+  <si>
+    <t>Customer Facing Service</t>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
+  <si>
+    <t>Command-Line Interface</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Data Base</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Data Center</t>
+  </si>
+  <si>
+    <t>ECA</t>
+  </si>
+  <si>
+    <t>Event-Condition-Action</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Group-Based Policy</t>
+  </si>
+  <si>
+    <t>IETF</t>
+  </si>
+  <si>
+    <t>Internet Engineering Task Force</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Internet Protocol</t>
+  </si>
+  <si>
+    <t>O&amp;M</t>
+  </si>
+  <si>
+    <t>Operations &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>ONF</t>
+  </si>
+  <si>
+    <t>Open Networking Foundation</t>
+  </si>
+  <si>
+    <t>ONOS</t>
+  </si>
+  <si>
+    <t>Open Network Operating System</t>
+  </si>
+  <si>
+    <t>PNF</t>
+  </si>
+  <si>
+    <t>Physical Network Function</t>
+  </si>
+  <si>
+    <t>QoS</t>
+  </si>
+  <si>
+    <t>Quality of Service</t>
+  </si>
+  <si>
+    <t>RFS</t>
+  </si>
+  <si>
+    <t>Resource Facing Service</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>Standards Developing Organization</t>
+  </si>
+  <si>
+    <t>SD-WAN</t>
+  </si>
+  <si>
+    <t>Software-Defined Wide-Area Network</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>Service-Level Agreement</t>
+  </si>
+  <si>
+    <t>SUPA</t>
+  </si>
+  <si>
+    <t>Simplified Use of Policy Abstractions</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>Virtual Local Area Network</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Virtual Machine</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>Virtual Private Network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,6 +514,20 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -547,13 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,25 +581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD6BBEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,89 +614,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -700,17 +626,72 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -720,7 +701,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -728,23 +709,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,30 +750,219 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -785,9 +972,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -800,193 +985,27 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,269 +1013,257 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1264,7 +1271,7 @@
         <color rgb="FF006100"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
@@ -1274,7 +1281,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1284,7 +1291,7 @@
         <color rgb="FF006100"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
@@ -1294,7 +1301,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1313,26 +1320,13 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1341,7 +1335,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1365,7 +1359,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1373,34 +1366,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1408,18 +1379,9 @@
             <c:strRef>
               <c:f>Stats!$C$14:$F$14</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10 10 8 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1433,7 +1395,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Stats!$C$13:$F$13</c:f>
@@ -1477,25 +1438,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="1087864288"/>
-        <c:axId val="1087858304"/>
+        <c:axId val="134030848"/>
+        <c:axId val="134041600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1087864288"/>
+        <c:axId val="134030848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1504,7 +1457,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1523,7 +1476,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1531,30 +1483,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1574,7 +1505,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1586,22 +1517,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1087858304"/>
+        <c:crossAx val="134041600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1087858304"/>
+        <c:axId val="134041600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1624,7 +1553,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1647,7 +1576,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1655,30 +1583,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1692,7 +1599,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1704,10 +1611,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1087864288"/>
+        <c:crossAx val="134030848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1721,7 +1628,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1743,14 +1649,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1758,17 +1664,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1777,7 +1673,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1796,7 +1692,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1804,34 +1699,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1855,7 +1728,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Stats!$C$13:$F$13</c:f>
@@ -1922,7 +1794,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Stats!$C$13:$F$13</c:f>
@@ -1989,7 +1860,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Stats!$C$13:$F$13</c:f>
@@ -2056,7 +1926,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Stats!$C$13:$F$13</c:f>
@@ -2123,7 +1992,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Stats!$C$16:$F$16</c:f>
@@ -2169,7 +2037,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Stats!$C$20:$F$20</c:f>
@@ -2192,25 +2059,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="1087870272"/>
-        <c:axId val="883803568"/>
+        <c:axId val="133967232"/>
+        <c:axId val="133985792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1087870272"/>
+        <c:axId val="133967232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2219,7 +2077,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2238,7 +2096,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2246,30 +2103,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2289,7 +2125,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2301,22 +2137,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883803568"/>
+        <c:crossAx val="133985792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="883803568"/>
+        <c:axId val="133985792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2339,7 +2173,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2363,7 +2197,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2371,30 +2204,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2408,7 +2220,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2420,10 +2232,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1087870272"/>
+        <c:crossAx val="133967232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2437,7 +2249,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2450,7 +2261,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2462,13 +2273,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2490,14 +2300,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2505,17 +2315,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2524,7 +2324,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2548,7 +2348,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2556,34 +2355,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2607,7 +2384,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Stats!$B$16:$B$21</c:f>
@@ -2685,7 +2461,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Stats!$B$16:$B$21</c:f>
@@ -2763,7 +2538,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Stats!$B$16:$B$21</c:f>
@@ -2841,7 +2615,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Stats!$B$16:$B$21</c:f>
@@ -2896,25 +2669,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="883807920"/>
-        <c:axId val="883805200"/>
+        <c:axId val="194654208"/>
+        <c:axId val="194656128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="883807920"/>
+        <c:axId val="194654208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2923,7 +2687,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2942,7 +2706,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2950,30 +2713,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2993,7 +2735,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3005,22 +2747,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883805200"/>
+        <c:crossAx val="194656128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="883805200"/>
+        <c:axId val="194656128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3043,7 +2783,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3067,7 +2807,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3075,30 +2814,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3112,7 +2830,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3124,10 +2842,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="883807920"/>
+        <c:crossAx val="194654208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3141,7 +2859,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3154,7 +2871,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3166,13 +2883,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3194,14 +2910,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4978,7 +4694,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5013,7 +4729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5188,1857 +4904,1854 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="5.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="61" style="59" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="27.08984375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="61" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:10">
+      <c r="C1" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="C3" s="23">
+        <v>2</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="C4" s="23">
+        <v>3</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" s="23">
+        <v>4</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="C6" s="23">
+        <v>5</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7" s="23">
+        <v>6</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="17.5">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="56">
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="28">
+      <c r="B12" s="38">
+        <v>2</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="41">
+        <v>2</v>
+      </c>
+      <c r="G12" s="41">
+        <v>0</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="126">
+      <c r="B13" s="38">
+        <v>3</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="41">
+        <v>3</v>
+      </c>
+      <c r="G13" s="41">
+        <v>1</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="56">
+      <c r="B14" s="38">
+        <v>4</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="41">
+        <v>3</v>
+      </c>
+      <c r="G14" s="41">
+        <v>1</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="70">
+      <c r="B15" s="38">
+        <v>5</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="41">
+        <v>3</v>
+      </c>
+      <c r="G15" s="41">
+        <v>1</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="1">
+    <row r="16" spans="2:10" ht="42">
+      <c r="B16" s="38">
+        <v>6</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="41">
+        <v>3</v>
+      </c>
+      <c r="G16" s="41">
+        <v>3</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="86"/>
+    </row>
+    <row r="17" spans="2:10" ht="70">
+      <c r="B17" s="38">
+        <v>7</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="41">
+        <v>3</v>
+      </c>
+      <c r="G17" s="41">
+        <v>2</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="86"/>
+    </row>
+    <row r="18" spans="2:10" ht="70">
+      <c r="B18" s="38">
+        <v>8</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="41">
+        <v>3</v>
+      </c>
+      <c r="G18" s="41">
+        <v>2</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="86"/>
+    </row>
+    <row r="19" spans="2:10" ht="56">
+      <c r="B19" s="38">
+        <v>9</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="41">
+        <v>5</v>
+      </c>
+      <c r="G19" s="41">
+        <v>3</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="86"/>
+    </row>
+    <row r="20" spans="2:10" ht="42">
+      <c r="B20" s="38">
+        <v>10</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="41">
+        <v>5</v>
+      </c>
+      <c r="G20" s="41">
+        <v>2</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="42">
+      <c r="B21" s="38">
+        <v>11</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="41">
+        <v>5</v>
+      </c>
+      <c r="G21" s="41">
+        <v>0</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="140">
+      <c r="B22" s="38">
+        <v>12</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="41">
+        <v>5</v>
+      </c>
+      <c r="G22" s="41">
+        <v>2</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="42">
+      <c r="B23" s="38">
+        <v>13</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="41">
+        <v>6</v>
+      </c>
+      <c r="G23" s="41">
+        <v>3</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="20" customFormat="1">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="2:10" ht="154">
+      <c r="B25" s="49">
+        <v>14</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="52">
+        <v>3</v>
+      </c>
+      <c r="G25" s="52">
         <v>1</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="H25" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="70">
+      <c r="B26" s="49">
+        <v>15</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="52">
+        <v>5</v>
+      </c>
+      <c r="G26" s="52">
+        <v>3</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="42">
+      <c r="B27" s="49">
+        <v>16</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="52">
+        <v>1</v>
+      </c>
+      <c r="G27" s="52">
+        <v>2</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="70">
+      <c r="B28" s="49">
+        <v>17</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="52">
+        <v>4</v>
+      </c>
+      <c r="G28" s="52">
+        <v>1</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="2:10" ht="76.5" customHeight="1">
+      <c r="B30" s="59">
+        <v>18</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="61">
+        <v>1</v>
+      </c>
+      <c r="G30" s="61">
+        <v>0</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="113.25" customHeight="1">
+      <c r="B31" s="59">
+        <v>19</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="61">
+        <v>1</v>
+      </c>
+      <c r="G31" s="61">
+        <v>1</v>
+      </c>
+      <c r="H31" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="42">
+      <c r="B32" s="59">
+        <v>20</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="61">
+        <v>1</v>
+      </c>
+      <c r="G32" s="61">
+        <v>1</v>
+      </c>
+      <c r="H32" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="112">
+      <c r="B33" s="59">
+        <v>21</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="61">
+        <v>1</v>
+      </c>
+      <c r="G33" s="61">
+        <v>0</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="92" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="42">
+      <c r="B34" s="59">
+        <v>22</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="61">
+        <v>1</v>
+      </c>
+      <c r="G34" s="61">
+        <v>0</v>
+      </c>
+      <c r="H34" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="92" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" s="21" customFormat="1">
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+    </row>
+    <row r="36" spans="2:10" ht="42">
+      <c r="B36" s="64">
+        <v>23</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="66">
+        <v>2</v>
+      </c>
+      <c r="H36" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="70">
+      <c r="B37" s="64">
+        <v>24</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="66">
+        <v>5</v>
+      </c>
+      <c r="G37" s="66">
+        <v>3</v>
+      </c>
+      <c r="H37" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="56">
+      <c r="B38" s="64">
+        <v>25</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="66">
+        <v>5</v>
+      </c>
+      <c r="G38" s="66">
+        <v>3</v>
+      </c>
+      <c r="H38" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="70">
+      <c r="B39" s="64">
+        <v>26</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="66">
+        <v>4</v>
+      </c>
+      <c r="G39" s="66">
+        <v>3</v>
+      </c>
+      <c r="H39" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" s="20" customFormat="1">
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+    </row>
+    <row r="41" spans="2:10" ht="28">
+      <c r="B41" s="68">
+        <v>27</v>
+      </c>
+      <c r="C41" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="71">
+        <v>6</v>
+      </c>
+      <c r="G41" s="71">
+        <v>2</v>
+      </c>
+      <c r="H41" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" s="20" customFormat="1">
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+    </row>
+    <row r="43" spans="2:10" ht="112">
+      <c r="B43" s="73">
+        <v>28</v>
+      </c>
+      <c r="C43" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="76">
+        <v>1</v>
+      </c>
+      <c r="H43" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="94" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="85.5" customHeight="1">
+      <c r="B44" s="73">
+        <v>29</v>
+      </c>
+      <c r="C44" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="76">
+        <v>1</v>
+      </c>
+      <c r="H44" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="93"/>
+      <c r="J44" s="94"/>
+    </row>
+    <row r="45" spans="2:10" ht="117.75" customHeight="1">
+      <c r="B45" s="73">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
+      <c r="C45" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="76">
+        <v>0</v>
+      </c>
+      <c r="H45" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="94" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="51" customHeight="1">
+      <c r="B46" s="73">
+        <v>31</v>
+      </c>
+      <c r="C46" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="76">
+        <v>1</v>
+      </c>
+      <c r="G46" s="76">
+        <v>0</v>
+      </c>
+      <c r="H46" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="72.75" customHeight="1">
+      <c r="B47" s="73">
+        <v>32</v>
+      </c>
+      <c r="C47" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="76">
+        <v>0</v>
+      </c>
+      <c r="H47" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="127.5" customHeight="1">
+      <c r="B48" s="73">
+        <v>33</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="76">
+        <v>1</v>
+      </c>
+      <c r="G48" s="76">
+        <v>1</v>
+      </c>
+      <c r="H48" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="42">
+      <c r="B49" s="73">
+        <v>34</v>
+      </c>
+      <c r="C49" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="76">
+        <v>1</v>
+      </c>
+      <c r="G49" s="76">
+        <v>3</v>
+      </c>
+      <c r="H49" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="42">
+      <c r="B50" s="73">
+        <v>35</v>
+      </c>
+      <c r="C50" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="76">
+        <v>1</v>
+      </c>
+      <c r="G50" s="76">
+        <v>3</v>
+      </c>
+      <c r="H50" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="84">
+      <c r="B51" s="73">
+        <v>36</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="76">
+        <v>1</v>
+      </c>
+      <c r="G51" s="76">
+        <v>0</v>
+      </c>
+      <c r="H51" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="42">
+      <c r="B52" s="73">
+        <v>37</v>
+      </c>
+      <c r="C52" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="76">
+        <v>1</v>
+      </c>
+      <c r="G52" s="76">
+        <v>3</v>
+      </c>
+      <c r="H52" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="28">
+      <c r="B53" s="78">
+        <v>38</v>
+      </c>
+      <c r="C53" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="81">
         <v>2</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="H53" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="82" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="72"/>
-      <c r="C10" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="73">
-        <v>1</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="67">
-        <v>0</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="74">
-        <v>2</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="68">
-        <v>2</v>
-      </c>
-      <c r="G12" s="68">
-        <v>0</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="74">
-        <v>3</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="68">
-        <v>3</v>
-      </c>
-      <c r="G13" s="68">
-        <v>1</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="74">
-        <v>4</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="68">
-        <v>3</v>
-      </c>
-      <c r="G14" s="68">
-        <v>1</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="74">
-        <v>5</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="68">
-        <v>3</v>
-      </c>
-      <c r="G15" s="68">
-        <v>1</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="74">
-        <v>6</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="68">
-        <v>3</v>
-      </c>
-      <c r="G16" s="68">
-        <v>3</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="61"/>
-    </row>
-    <row r="17" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="74">
-        <v>7</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="68">
-        <v>3</v>
-      </c>
-      <c r="G17" s="68">
-        <v>2</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="74">
-        <v>8</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="68">
-        <v>3</v>
-      </c>
-      <c r="G18" s="68">
-        <v>2</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="19" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="74">
-        <v>9</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="68">
-        <v>5</v>
-      </c>
-      <c r="G19" s="68">
-        <v>3</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="61"/>
-    </row>
-    <row r="20" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="74">
-        <v>10</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="68">
-        <v>5</v>
-      </c>
-      <c r="G20" s="68">
-        <v>2</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="61"/>
-    </row>
-    <row r="21" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="74">
-        <v>11</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="68">
-        <v>5</v>
-      </c>
-      <c r="G21" s="68">
-        <v>0</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="74">
-        <v>12</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="68">
-        <v>5</v>
-      </c>
-      <c r="G22" s="68">
-        <v>2</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="74">
-        <v>13</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="68">
-        <v>6</v>
-      </c>
-      <c r="G23" s="68">
-        <v>3</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" spans="2:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="75">
-        <v>14</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="69">
-        <v>3</v>
-      </c>
-      <c r="G25" s="69">
-        <v>1</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="75">
-        <v>15</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="69">
-        <v>5</v>
-      </c>
-      <c r="G26" s="69">
-        <v>3</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="75">
-        <v>16</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="69">
-        <v>1</v>
-      </c>
-      <c r="G27" s="69">
-        <v>2</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="75">
-        <v>17</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="69">
-        <v>4</v>
-      </c>
-      <c r="G28" s="69">
-        <v>1</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="81"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="2:10" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="76">
-        <v>18</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="70">
-        <v>1</v>
-      </c>
-      <c r="G30" s="70">
-        <v>0</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="76">
-        <v>19</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="70">
-        <v>1</v>
-      </c>
-      <c r="G31" s="70">
-        <v>1</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="63" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="76">
-        <v>20</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="70">
-        <v>1</v>
-      </c>
-      <c r="G32" s="70">
-        <v>1</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="76">
-        <v>21</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="70">
-        <v>1</v>
-      </c>
-      <c r="G33" s="70">
-        <v>0</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="76">
-        <v>22</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="70">
-        <v>1</v>
-      </c>
-      <c r="G34" s="70">
-        <v>0</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" s="48" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="81"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-    </row>
-    <row r="36" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="82">
-        <v>23</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="79">
-        <v>2</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="82">
-        <v>24</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="79">
-        <v>5</v>
-      </c>
-      <c r="G37" s="79">
-        <v>3</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="J37" s="38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="82">
-        <v>25</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="79">
-        <v>5</v>
-      </c>
-      <c r="G38" s="79">
-        <v>3</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="J38" s="38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="82">
-        <v>26</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="79">
-        <v>4</v>
-      </c>
-      <c r="G39" s="79">
-        <v>3</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="J39" s="38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="80"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-    </row>
-    <row r="41" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="83">
-        <v>27</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="78">
-        <v>6</v>
-      </c>
-      <c r="G41" s="78">
-        <v>2</v>
-      </c>
-      <c r="H41" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="J41" s="52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="80"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-    </row>
-    <row r="43" spans="2:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="77">
-        <v>28</v>
-      </c>
-      <c r="C43" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" s="71">
-        <v>1</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="J43" s="64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="77">
-        <v>29</v>
-      </c>
-      <c r="C44" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="71">
-        <v>1</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="57"/>
-      <c r="J44" s="64"/>
-    </row>
-    <row r="45" spans="2:10" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="77">
-        <v>30</v>
-      </c>
-      <c r="C45" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="71">
-        <v>0</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="J45" s="64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="77">
-        <v>31</v>
-      </c>
-      <c r="C46" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="71">
-        <v>1</v>
-      </c>
-      <c r="G46" s="71">
-        <v>0</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="J46" s="64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="77">
+      <c r="J53" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="71">
-        <v>0</v>
-      </c>
-      <c r="H47" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="J47" s="64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="77">
-        <v>33</v>
-      </c>
-      <c r="C48" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="71">
-        <v>1</v>
-      </c>
-      <c r="G48" s="71">
-        <v>1</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="J48" s="64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="77">
-        <v>34</v>
-      </c>
-      <c r="C49" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="71">
-        <v>1</v>
-      </c>
-      <c r="G49" s="71">
-        <v>3</v>
-      </c>
-      <c r="H49" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="I49" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="J49" s="40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="77">
-        <v>35</v>
-      </c>
-      <c r="C50" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="71">
-        <v>1</v>
-      </c>
-      <c r="G50" s="71">
-        <v>3</v>
-      </c>
-      <c r="H50" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="I50" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="J50" s="40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="77">
-        <v>36</v>
-      </c>
-      <c r="C51" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="71">
-        <v>1</v>
-      </c>
-      <c r="G51" s="71">
-        <v>0</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="J51" s="64" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="77">
-        <v>37</v>
-      </c>
-      <c r="C52" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="71">
-        <v>1</v>
-      </c>
-      <c r="G52" s="71">
-        <v>3</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="J52" s="40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="84">
-        <v>38</v>
-      </c>
-      <c r="C53" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="87">
-        <v>2</v>
-      </c>
-      <c r="H53" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="J53" s="42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J54" s="62"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="J54" s="95"/>
     </row>
   </sheetData>
-  <autoFilter ref="B10:J53"/>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+  <autoFilter ref="B10:J53">
+    <extLst/>
+  </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="E2" s="18" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="K3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="13">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14">
+        <v>3</v>
+      </c>
+      <c r="H5" s="14">
+        <v>4</v>
+      </c>
+      <c r="I5" s="14">
+        <v>3</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="13">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="15">
+        <v>3</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="E9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19"/>
-      <c r="K2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="E10" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="17"/>
-      <c r="K3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="F10" s="15">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="G10" s="15">
+        <v>3</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="H4" s="5">
+      <c r="E13" s="11">
         <v>2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="F13" s="11">
         <v>3</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="15">
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="16">
         <v>10</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="D14" s="16">
+        <v>10</v>
+      </c>
+      <c r="E14" s="16">
+        <v>8</v>
+      </c>
+      <c r="F14" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14">
+        <v>3</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
         <v>2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="15">
         <v>3</v>
       </c>
-      <c r="G5" s="8">
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
         <v>3</v>
       </c>
-      <c r="H5" s="8">
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="15">
         <v>4</v>
       </c>
-      <c r="I5" s="8">
+      <c r="D21" s="15">
         <v>3</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="15">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="E21" s="15">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="15">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="F21" s="15">
         <v>3</v>
       </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="17">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6">
-        <v>4</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7">
-        <v>8</v>
-      </c>
-      <c r="F14" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="8">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4</v>
-      </c>
-      <c r="F16" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="6">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
-        <v>84</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
-        <v>88</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
-        <v>90</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>92</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
-        <v>94</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
-        <v>96</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
-        <v>98</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
-        <v>100</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
-        <v>102</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
-        <v>106</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.5">
+      <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
-        <v>108</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
-        <v>110</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
-        <v>112</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
-        <v>114</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
-        <v>116</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
-        <v>118</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
-        <v>120</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="88" t="s">
-        <v>122</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="88" t="s">
-        <v>124</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
-        <v>128</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
-        <v>130</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Classification Draft Plan for Draft v0.4_github.xlsx
+++ b/Classification Draft Plan for Draft v0.4_github.xlsx
@@ -1438,14 +1438,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="134030848"/>
-        <c:axId val="134041600"/>
+        <c:axId val="129546880"/>
+        <c:axId val="202232576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134030848"/>
+        <c:axId val="129546880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,14 +1519,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134041600"/>
+        <c:crossAx val="202232576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134041600"/>
+        <c:axId val="202232576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1613,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134030848"/>
+        <c:crossAx val="129546880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,7 +1655,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2059,13 +2058,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="133967232"/>
-        <c:axId val="133985792"/>
+        <c:axId val="130161280"/>
+        <c:axId val="130171648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133967232"/>
+        <c:axId val="130161280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,14 +2138,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133985792"/>
+        <c:crossAx val="130171648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133985792"/>
+        <c:axId val="130171648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,7 +2233,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133967232"/>
+        <c:crossAx val="130161280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2307,7 +2305,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2669,13 +2667,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="194654208"/>
-        <c:axId val="194656128"/>
+        <c:axId val="130315008"/>
+        <c:axId val="130316928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194654208"/>
+        <c:axId val="130315008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,14 +2747,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194656128"/>
+        <c:crossAx val="130316928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194656128"/>
+        <c:axId val="130316928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,7 +2842,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194654208"/>
+        <c:crossAx val="130315008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2917,7 +2914,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
